--- a/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
+++ b/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,94 +472,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D2" t="n">
-        <v>17.55</v>
+        <v>4.99</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D3" t="n">
-        <v>8.970000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D4" t="n">
-        <v>4.29</v>
+        <v>11.65</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D5" t="n">
-        <v>3.51</v>
+        <v>15.49</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="6">
@@ -567,59 +567,59 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D6" t="n">
-        <v>4.68</v>
+        <v>1.35</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.68</v>
+        <v>19.89</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D8" t="n">
-        <v>16.38</v>
+        <v>9.66</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -628,76 +628,306 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D9" t="n">
-        <v>20.28</v>
+        <v>5.95</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.3</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D10" t="n">
-        <v>10.53</v>
+        <v>17.73</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="D11" t="n">
-        <v>10.92</v>
+        <v>15.08</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>73</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.93</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
+++ b/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +426,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>4.2</v>
+        <v>1.71</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
-        <v>4.8</v>
+        <v>0.57</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>4.5</v>
+        <v>0.57</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6.27</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>4.56</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3.99</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>5.8</v>
+        <v>1.71</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,22 +610,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>6.5</v>
+        <v>18.24</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>5.3</v>
+        <v>21.09</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,22 +656,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6.93</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,197 +679,197 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2.52</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>7.5</v>
+        <v>10.08</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5.04</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>4.8</v>
+        <v>10.71</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D18">
-        <v>5.7</v>
+        <v>11.52</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="D19">
-        <v>5.4</v>
+        <v>11.52</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
-        <v>4.8</v>
+        <v>14.08</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
-        <v>4.4</v>
+        <v>7.68</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -878,99 +878,53 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>5.8</v>
+        <v>2.56</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="C24">
-        <v>4.7</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>110</v>
-      </c>
-      <c r="C25">
-        <v>4.4</v>
-      </c>
-      <c r="D25">
-        <v>6.5</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
+++ b/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +426,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1.71</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>10.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>1.71</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>0.57</v>
+        <v>300</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>10.6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>0.57</v>
+        <v>280</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>6.27</v>
+        <v>350</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>4.56</v>
+        <v>400</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10.6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>3.99</v>
+        <v>450</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>1.71</v>
+        <v>370</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,22 +610,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>18.24</v>
+        <v>420</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>10.6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>21.09</v>
+        <v>350</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>10.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,22 +656,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>6.93</v>
+        <v>450</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>10.6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,197 +679,197 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>2.52</v>
+        <v>450</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>10.08</v>
+        <v>400</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>10.6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>5.04</v>
+        <v>320</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>10.6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>2.52</v>
+        <v>280</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>10.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>0.4</v>
-      </c>
-      <c r="D17">
-        <v>10.71</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>10.6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>11.52</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>10.6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>11.52</v>
+        <v>280</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>10.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>14.08</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>10.6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>7.68</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -878,53 +878,99 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>9.6</v>
+        <v>320</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>10.6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>2.56</v>
+        <v>350</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>10.6</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>330</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>370</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
+++ b/Dashboard/src/app/data/Diclofenaco-prediccion.xlsx
@@ -426,22 +426,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>850</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>105</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>950</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>125</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>135</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>850</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>120</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,13 +679,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,13 +702,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="C14">
         <v>80</v>
       </c>
       <c r="D14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>130</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,22 +725,22 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15">
         <v>70</v>
       </c>
-      <c r="C15">
-        <v>60</v>
-      </c>
       <c r="D15">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>110</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,22 +748,22 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>700</v>
+      </c>
+      <c r="C16">
         <v>60</v>
       </c>
-      <c r="C16">
-        <v>55</v>
-      </c>
       <c r="D16">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,22 +771,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>95</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,22 +794,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>105</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,13 +817,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>650</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,13 +840,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="C20">
         <v>45</v>
       </c>
       <c r="D20">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>90</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,13 +863,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>110</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,13 +909,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>120</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,13 +932,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>115</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,13 +955,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>850</v>
       </c>
       <c r="C25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>125</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
